--- a/image/terminologycapabilities.xlsx
+++ b/image/terminologycapabilities.xlsx
@@ -1279,45 +1279,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="62.28515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="62.6953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="89.3828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="89.85546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="88.890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.9453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="56.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="89.2109375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.41015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="56.546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.69921875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.07421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/terminologycapabilities.xlsx
+++ b/image/terminologycapabilities.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3094" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3094" uniqueCount="362">
   <si>
     <t>Path</t>
   </si>
@@ -165,7 +165,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -359,10 +359,6 @@
   </si>
   <si>
     <t>TerminologyCapabilities.version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Business version of the terminology capabilities</t>
@@ -1279,45 +1275,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="62.6953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="62.28515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="89.85546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="89.3828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="89.2109375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.41015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="56.546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="88.890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.9453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="56.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.07421875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.69921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2574,16 +2570,16 @@
         <v>49</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2651,10 +2647,10 @@
         <v>40</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>40</v>
@@ -2662,7 +2658,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2685,19 +2681,19 @@
         <v>49</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>40</v>
@@ -2746,7 +2742,7 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -2755,7 +2751,7 @@
         <v>48</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>40</v>
@@ -2775,7 +2771,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2798,16 +2794,16 @@
         <v>49</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2857,7 +2853,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2875,7 +2871,7 @@
         <v>40</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>40</v>
@@ -2886,7 +2882,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2912,13 +2908,13 @@
         <v>67</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2944,52 +2940,52 @@
         <v>40</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>40</v>
@@ -2997,7 +2993,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3020,19 +3016,19 @@
         <v>49</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -3081,7 +3077,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -3099,10 +3095,10 @@
         <v>40</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>40</v>
@@ -3110,11 +3106,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3133,16 +3129,16 @@
         <v>49</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3192,7 +3188,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>48</v>
@@ -3210,10 +3206,10 @@
         <v>40</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>
@@ -3221,7 +3217,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3244,19 +3240,19 @@
         <v>49</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>40</v>
@@ -3305,7 +3301,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3323,10 +3319,10 @@
         <v>40</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>40</v>
@@ -3334,7 +3330,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3357,16 +3353,16 @@
         <v>49</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3416,7 +3412,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3434,7 +3430,7 @@
         <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
@@ -3445,7 +3441,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3468,16 +3464,16 @@
         <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3527,7 +3523,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3545,7 +3541,7 @@
         <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
@@ -3556,7 +3552,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3579,19 +3575,19 @@
         <v>49</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>40</v>
@@ -3640,7 +3636,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3658,7 +3654,7 @@
         <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -3669,7 +3665,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3692,16 +3688,16 @@
         <v>49</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3727,14 +3723,14 @@
         <v>40</v>
       </c>
       <c r="W22" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="X22" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="Y22" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Y22" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="Z22" t="s" s="2">
         <v>40</v>
       </c>
@@ -3751,7 +3747,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3769,7 +3765,7 @@
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -3780,7 +3776,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3803,16 +3799,16 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3862,7 +3858,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3880,22 +3876,22 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>194</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3914,17 +3910,17 @@
         <v>49</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -3973,7 +3969,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3991,18 +3987,18 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4028,14 +4024,14 @@
         <v>67</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -4060,40 +4056,40 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH25" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>40</v>
@@ -4113,7 +4109,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4136,13 +4132,13 @@
         <v>49</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4193,7 +4189,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4202,10 +4198,10 @@
         <v>48</v>
       </c>
       <c r="AH26" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AI26" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>40</v>
@@ -4222,7 +4218,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4245,13 +4241,13 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4302,7 +4298,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4331,7 +4327,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4360,7 +4356,7 @@
         <v>94</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>96</v>
@@ -4413,7 +4409,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4442,11 +4438,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4468,10 +4464,10 @@
         <v>93</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>96</v>
@@ -4526,7 +4522,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4555,7 +4551,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4578,13 +4574,13 @@
         <v>49</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4635,7 +4631,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>48</v>
@@ -4664,7 +4660,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4687,16 +4683,16 @@
         <v>49</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4746,7 +4742,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4775,7 +4771,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4798,13 +4794,13 @@
         <v>49</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4855,7 +4851,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4864,10 +4860,10 @@
         <v>48</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>40</v>
@@ -4884,7 +4880,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4907,13 +4903,13 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4964,7 +4960,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4993,7 +4989,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5022,7 +5018,7 @@
         <v>94</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>96</v>
@@ -5075,7 +5071,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5104,11 +5100,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5130,10 +5126,10 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>96</v>
@@ -5188,7 +5184,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5217,7 +5213,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5240,13 +5236,13 @@
         <v>49</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5297,7 +5293,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>48</v>
@@ -5326,7 +5322,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5349,13 +5345,13 @@
         <v>49</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5406,7 +5402,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5435,7 +5431,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5458,13 +5454,13 @@
         <v>49</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5515,7 +5511,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5544,11 +5540,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5567,16 +5563,16 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5626,7 +5622,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5638,7 +5634,7 @@
         <v>40</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>40</v>
@@ -5655,7 +5651,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5678,13 +5674,13 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5735,7 +5731,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5764,7 +5760,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5793,7 +5789,7 @@
         <v>94</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>96</v>
@@ -5846,7 +5842,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5875,11 +5871,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5901,10 +5897,10 @@
         <v>93</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>96</v>
@@ -5959,7 +5955,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5988,7 +5984,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6011,13 +6007,13 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6068,7 +6064,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6097,7 +6093,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6120,16 +6116,16 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6179,7 +6175,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6191,7 +6187,7 @@
         <v>40</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>40</v>
@@ -6208,7 +6204,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6231,13 +6227,13 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6288,7 +6284,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6317,7 +6313,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6346,7 +6342,7 @@
         <v>94</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>96</v>
@@ -6399,7 +6395,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6428,11 +6424,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6454,10 +6450,10 @@
         <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>96</v>
@@ -6512,7 +6508,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6541,7 +6537,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6564,13 +6560,13 @@
         <v>49</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6621,7 +6617,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6630,7 +6626,7 @@
         <v>48</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>40</v>
@@ -6650,7 +6646,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6673,13 +6669,13 @@
         <v>49</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6730,7 +6726,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6759,7 +6755,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6782,13 +6778,13 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6839,7 +6835,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6868,7 +6864,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6894,10 +6890,10 @@
         <v>67</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6948,7 +6944,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -6977,7 +6973,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7000,13 +6996,13 @@
         <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7057,7 +7053,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7069,7 +7065,7 @@
         <v>40</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>40</v>
@@ -7086,7 +7082,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7109,13 +7105,13 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7166,7 +7162,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7195,7 +7191,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7224,7 +7220,7 @@
         <v>94</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>96</v>
@@ -7277,7 +7273,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7306,11 +7302,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7332,10 +7328,10 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>96</v>
@@ -7390,7 +7386,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7419,7 +7415,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7445,10 +7441,10 @@
         <v>67</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7499,7 +7495,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>48</v>
@@ -7528,7 +7524,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7554,10 +7550,10 @@
         <v>67</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7608,7 +7604,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>48</v>
@@ -7637,7 +7633,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7663,10 +7659,10 @@
         <v>67</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7717,7 +7713,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7746,7 +7742,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7769,13 +7765,13 @@
         <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7826,7 +7822,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -7855,7 +7851,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7878,13 +7874,13 @@
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7935,7 +7931,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -7947,7 +7943,7 @@
         <v>40</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>40</v>
@@ -7964,7 +7960,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7987,13 +7983,13 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8044,7 +8040,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8073,7 +8069,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8102,7 +8098,7 @@
         <v>94</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>96</v>
@@ -8155,7 +8151,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8184,11 +8180,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8210,10 +8206,10 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>96</v>
@@ -8268,7 +8264,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8297,7 +8293,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8320,13 +8316,13 @@
         <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8377,7 +8373,7 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8406,7 +8402,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8429,13 +8425,13 @@
         <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8486,7 +8482,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8515,7 +8511,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8538,13 +8534,13 @@
         <v>40</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8595,7 +8591,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -8624,7 +8620,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8647,13 +8643,13 @@
         <v>40</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8704,7 +8700,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -8716,7 +8712,7 @@
         <v>40</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>40</v>
@@ -8733,7 +8729,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8756,13 +8752,13 @@
         <v>40</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8813,7 +8809,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -8842,7 +8838,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8871,7 +8867,7 @@
         <v>94</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>96</v>
@@ -8924,7 +8920,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -8953,11 +8949,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -8979,10 +8975,10 @@
         <v>93</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M70" t="s" s="2">
         <v>96</v>
@@ -9037,7 +9033,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9066,7 +9062,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9092,10 +9088,10 @@
         <v>67</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9146,7 +9142,7 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>48</v>
@@ -9175,7 +9171,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9198,13 +9194,13 @@
         <v>40</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9255,7 +9251,7 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9284,7 +9280,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9307,16 +9303,16 @@
         <v>40</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -9366,7 +9362,7 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9395,7 +9391,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9421,13 +9417,13 @@
         <v>67</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -9453,13 +9449,13 @@
         <v>40</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>40</v>
@@ -9477,7 +9473,7 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9506,7 +9502,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9529,13 +9525,13 @@
         <v>40</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9586,7 +9582,7 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -9598,7 +9594,7 @@
         <v>40</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>40</v>
@@ -9615,7 +9611,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9638,13 +9634,13 @@
         <v>40</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9695,7 +9691,7 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -9724,7 +9720,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9753,7 +9749,7 @@
         <v>94</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>96</v>
@@ -9806,7 +9802,7 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -9835,11 +9831,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -9861,10 +9857,10 @@
         <v>93</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>96</v>
@@ -9919,7 +9915,7 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -9948,7 +9944,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9971,13 +9967,13 @@
         <v>40</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10028,7 +10024,7 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>48</v>
@@ -10057,7 +10053,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10080,13 +10076,13 @@
         <v>40</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10137,7 +10133,7 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10149,7 +10145,7 @@
         <v>40</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>40</v>
@@ -10166,7 +10162,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10189,13 +10185,13 @@
         <v>40</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10246,7 +10242,7 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -10275,7 +10271,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10304,7 +10300,7 @@
         <v>94</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>96</v>
@@ -10357,7 +10353,7 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10386,11 +10382,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10412,10 +10408,10 @@
         <v>93</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M83" t="s" s="2">
         <v>96</v>
@@ -10470,7 +10466,7 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -10499,7 +10495,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10522,13 +10518,13 @@
         <v>40</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10579,7 +10575,7 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>48</v>
@@ -10608,7 +10604,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10631,13 +10627,13 @@
         <v>40</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10688,7 +10684,7 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -10700,7 +10696,7 @@
         <v>40</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>40</v>
@@ -10717,7 +10713,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10740,13 +10736,13 @@
         <v>40</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -10797,7 +10793,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
@@ -10826,7 +10822,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10855,7 +10851,7 @@
         <v>94</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M87" t="s" s="2">
         <v>96</v>
@@ -10908,7 +10904,7 @@
         <v>40</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>41</v>
@@ -10937,11 +10933,11 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -10963,10 +10959,10 @@
         <v>93</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>96</v>
@@ -11021,7 +11017,7 @@
         <v>40</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>41</v>
@@ -11050,7 +11046,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11073,13 +11069,13 @@
         <v>40</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11130,7 +11126,7 @@
         <v>40</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
